--- a/features.xlsx
+++ b/features.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisheksahu/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6435CDB0-0FB3-F240-9A7E-4E692C80778D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16200" xr2:uid="{C5F256E4-71D6-394D-A177-A82DAB5B3457}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$63</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>Campaign Code</t>
   </si>
@@ -199,13 +196,97 @@
   </si>
   <si>
     <t>Apart from buckets, lets also keep the visit number</t>
+  </si>
+  <si>
+    <t>Ad Content</t>
+  </si>
+  <si>
+    <t>Rest all values in one bucket</t>
+  </si>
+  <si>
+    <t>Google Merchandise Collection</t>
+  </si>
+  <si>
+    <t>Adwords Click Info</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Rest in one bucket</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Browser Size</t>
+  </si>
+  <si>
+    <t>Browser Version</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>(not set)</t>
+  </si>
+  <si>
+    <t>AW-Accessories</t>
+  </si>
+  <si>
+    <t>AW-Dynamic Search Ads</t>
+  </si>
+  <si>
+    <t>Group (Other) &amp; Affiliates, rest separate</t>
+  </si>
+  <si>
+    <t>City Id</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Group other. Check more later</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>group other</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>isTrueDirect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,13 +294,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,11 +329,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -351,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -545,38 +643,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8C3861-3692-3443-B9F3-E04EC85BDCF9}">
-  <dimension ref="A2:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -584,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -595,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -603,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -611,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -619,7 +717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -627,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -635,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -643,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -651,7 +749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -659,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -670,24 +768,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -695,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -703,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -711,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -719,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -727,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -735,7 +833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -743,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -751,7 +849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -759,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -770,12 +868,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -783,7 +881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -791,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -799,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -807,15 +905,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -823,77 +921,229 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
         <v>46</v>
       </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="b">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>57</v>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:C63"/>
   <mergeCells count="1">
     <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>